--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121022a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121022a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,6 +582,27 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2507872738196449</v>
+      </c>
+      <c r="D5">
+        <v>0.2484603367430894</v>
+      </c>
+      <c r="E5">
+        <v>0.7515164003538076</v>
+      </c>
+      <c r="F5">
+        <v>0.8169748258204544</v>
+      </c>
+      <c r="G5">
+        <v>1.940780142856299</v>
+      </c>
+      <c r="H5">
+        <v>0.9247170617093116</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -597,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2507872738196449</v>
+        <v>0.4173161102117761</v>
       </c>
       <c r="D6">
-        <v>0.2484603367430894</v>
+        <v>0.4717473170636254</v>
       </c>
       <c r="E6">
-        <v>0.7515164003538076</v>
+        <v>2.676333028325332</v>
       </c>
       <c r="F6">
-        <v>0.8169748258204544</v>
+        <v>1.746744600816121</v>
       </c>
       <c r="G6">
-        <v>1.940780142856299</v>
+        <v>5.93810535821779</v>
       </c>
       <c r="H6">
-        <v>0.9247170617093116</v>
+        <v>1.839644114289289</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -623,28 +638,49 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4173161102117761</v>
+        <v>0.5735831757557439</v>
       </c>
       <c r="D7">
-        <v>0.4717473170636254</v>
+        <v>0.6201527215424948</v>
       </c>
       <c r="E7">
-        <v>2.676333028325332</v>
+        <v>2.569956751788632</v>
       </c>
       <c r="F7">
-        <v>1.746744600816121</v>
+        <v>0.8076751940046523</v>
       </c>
       <c r="G7">
-        <v>5.93810535821779</v>
+        <v>5.400183655818156</v>
       </c>
       <c r="H7">
-        <v>1.839644114289289</v>
+        <v>0.8171824200618959</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1.787574207147729</v>
+      </c>
+      <c r="D8">
+        <v>1.845383093636107</v>
+      </c>
+      <c r="E8">
+        <v>3.280111635971241</v>
+      </c>
+      <c r="F8">
+        <v>1.917465776386419</v>
+      </c>
+      <c r="G8">
+        <v>9.152921625369048</v>
+      </c>
+      <c r="H8">
+        <v>2.166024832035191</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -654,22 +690,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5735831757557439</v>
+        <v>1.499729312334564</v>
       </c>
       <c r="D9">
-        <v>0.6201527215424948</v>
+        <v>1.731236975688517</v>
       </c>
       <c r="E9">
-        <v>2.569956751788632</v>
+        <v>8.360121698142493</v>
       </c>
       <c r="F9">
-        <v>0.8076751940046523</v>
+        <v>2.980773848900957</v>
       </c>
       <c r="G9">
-        <v>5.400183655818156</v>
+        <v>21.17158299087262</v>
       </c>
       <c r="H9">
-        <v>0.8171824200618959</v>
+        <v>2.299304691205551</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -680,22 +716,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.787574207147729</v>
+        <v>1.172518521870318</v>
       </c>
       <c r="D10">
-        <v>1.845383093636107</v>
+        <v>1.194483463631898</v>
       </c>
       <c r="E10">
-        <v>3.280111635971241</v>
+        <v>6.730878941768616</v>
       </c>
       <c r="F10">
-        <v>1.917465776386419</v>
+        <v>1.612754390746685</v>
       </c>
       <c r="G10">
-        <v>9.152921625369048</v>
+        <v>24.16468413765944</v>
       </c>
       <c r="H10">
-        <v>2.166024832035191</v>
+        <v>1.490412236449429</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -706,22 +742,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.499729312334564</v>
+        <v>2.190731659551413</v>
       </c>
       <c r="D11">
-        <v>1.731236975688517</v>
+        <v>2.286381017219059</v>
       </c>
       <c r="E11">
-        <v>8.360121698142493</v>
+        <v>7.297101759456418</v>
       </c>
       <c r="F11">
-        <v>2.980773848900957</v>
+        <v>2.699326120370863</v>
       </c>
       <c r="G11">
-        <v>21.17158299087262</v>
+        <v>17.49024265404395</v>
       </c>
       <c r="H11">
-        <v>2.299304691205551</v>
+        <v>2.949951524630713</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -732,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.172518521870318</v>
+        <v>1.100868528515508</v>
       </c>
       <c r="D12">
-        <v>1.194483463631898</v>
+        <v>1.229038321734609</v>
       </c>
       <c r="E12">
-        <v>6.730878941768616</v>
+        <v>4.181318688618839</v>
       </c>
       <c r="F12">
-        <v>1.612754390746685</v>
+        <v>1.184341224243167</v>
       </c>
       <c r="G12">
-        <v>24.16468413765944</v>
+        <v>8.698134797846837</v>
       </c>
       <c r="H12">
-        <v>1.490412236449429</v>
+        <v>1.228725908267395</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -758,22 +794,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.190731659551413</v>
+        <v>2.296499906869757</v>
       </c>
       <c r="D13">
-        <v>2.286381017219059</v>
+        <v>2.436315927189144</v>
       </c>
       <c r="E13">
-        <v>7.297101759456418</v>
+        <v>11.08168071728537</v>
       </c>
       <c r="F13">
-        <v>2.699326120370863</v>
+        <v>4.364888746986128</v>
       </c>
       <c r="G13">
-        <v>17.49024265404395</v>
+        <v>27.02937796853413</v>
       </c>
       <c r="H13">
-        <v>2.949951524630713</v>
+        <v>3.838384746143414</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -784,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.100868528515508</v>
+        <v>0.8747345659301526</v>
       </c>
       <c r="D14">
-        <v>1.229038321734609</v>
+        <v>1.011497318577143</v>
       </c>
       <c r="E14">
-        <v>4.181318688618839</v>
+        <v>6.99081863238905</v>
       </c>
       <c r="F14">
-        <v>1.184341224243167</v>
+        <v>2.35371806581774</v>
       </c>
       <c r="G14">
-        <v>8.698134797846837</v>
+        <v>13.45456944742002</v>
       </c>
       <c r="H14">
-        <v>1.228725908267395</v>
+        <v>2.523408652592504</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -810,22 +846,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.296499906869757</v>
+        <v>0.345036926675498</v>
       </c>
       <c r="D15">
-        <v>2.436315927189144</v>
+        <v>0.3531658569098057</v>
       </c>
       <c r="E15">
-        <v>11.08168071728537</v>
+        <v>2.389546029110432</v>
       </c>
       <c r="F15">
-        <v>4.364888746986128</v>
+        <v>0.9285988828769437</v>
       </c>
       <c r="G15">
-        <v>27.02937796853413</v>
+        <v>4.327064832285274</v>
       </c>
       <c r="H15">
-        <v>3.838384746143414</v>
+        <v>1.022481618902623</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -836,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.8747345659301526</v>
+        <v>1.123903642695248</v>
       </c>
       <c r="D16">
-        <v>1.011497318577143</v>
+        <v>1.139879529585017</v>
       </c>
       <c r="E16">
-        <v>6.99081863238905</v>
+        <v>11.45538443957088</v>
       </c>
       <c r="F16">
-        <v>2.35371806581774</v>
+        <v>3.823721885785956</v>
       </c>
       <c r="G16">
-        <v>13.45456944742002</v>
+        <v>20.78756985864832</v>
       </c>
       <c r="H16">
-        <v>2.523408652592504</v>
+        <v>4.773019298692292</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -862,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.345036926675498</v>
+        <v>1.330320961449737</v>
       </c>
       <c r="D17">
-        <v>0.3531658569098057</v>
+        <v>1.328669414632295</v>
       </c>
       <c r="E17">
-        <v>2.389546029110432</v>
+        <v>9.665932839855074</v>
       </c>
       <c r="F17">
-        <v>0.9285988828769437</v>
+        <v>3.063843742694349</v>
       </c>
       <c r="G17">
-        <v>4.327064832285274</v>
+        <v>29.32862853401107</v>
       </c>
       <c r="H17">
-        <v>1.022481618902623</v>
+        <v>2.611761322175687</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -888,22 +924,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1.123903642695248</v>
+        <v>0.9262219973629479</v>
       </c>
       <c r="D18">
-        <v>1.139879529585017</v>
+        <v>0.9664486809695677</v>
       </c>
       <c r="E18">
-        <v>11.45538443957088</v>
+        <v>4.023148016102164</v>
       </c>
       <c r="F18">
-        <v>3.823721885785956</v>
+        <v>1.583714020253246</v>
       </c>
       <c r="G18">
-        <v>20.78756985864832</v>
+        <v>12.16154725360941</v>
       </c>
       <c r="H18">
-        <v>4.773019298692292</v>
+        <v>1.78882064903994</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -914,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.330320961449737</v>
+        <v>0.9709016469290312</v>
       </c>
       <c r="D19">
-        <v>1.328669414632295</v>
+        <v>1.045334713374307</v>
       </c>
       <c r="E19">
-        <v>9.665932839855074</v>
+        <v>3.331784778822068</v>
       </c>
       <c r="F19">
-        <v>3.063843742694349</v>
+        <v>1.712963058890707</v>
       </c>
       <c r="G19">
-        <v>29.32862853401107</v>
+        <v>14.11365520358395</v>
       </c>
       <c r="H19">
-        <v>2.611761322175687</v>
+        <v>1.814214274943321</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -940,22 +976,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.9262219973629479</v>
+        <v>1.213185675589167</v>
       </c>
       <c r="D20">
-        <v>0.9664486809695677</v>
+        <v>1.222953676197773</v>
       </c>
       <c r="E20">
-        <v>4.023148016102164</v>
+        <v>5.886463061944519</v>
       </c>
       <c r="F20">
-        <v>1.583714020253246</v>
+        <v>2.904989570309735</v>
       </c>
       <c r="G20">
-        <v>12.16154725360941</v>
+        <v>11.72960131123549</v>
       </c>
       <c r="H20">
-        <v>1.78882064903994</v>
+        <v>2.548242870724642</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -966,22 +1002,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.9709016469290312</v>
+        <v>0.8889787308692259</v>
       </c>
       <c r="D21">
-        <v>1.045334713374307</v>
+        <v>0.8669790398943953</v>
       </c>
       <c r="E21">
-        <v>3.331784778822068</v>
+        <v>3.71438129064304</v>
       </c>
       <c r="F21">
-        <v>1.712963058890707</v>
+        <v>1.861732782959334</v>
       </c>
       <c r="G21">
-        <v>14.11365520358395</v>
+        <v>9.363769405098003</v>
       </c>
       <c r="H21">
-        <v>1.814214274943321</v>
+        <v>2.064901127434388</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -992,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.213185675589167</v>
+        <v>1.067905635753283</v>
       </c>
       <c r="D22">
-        <v>1.222953676197773</v>
+        <v>1.052688204229557</v>
       </c>
       <c r="E22">
-        <v>5.886463061944519</v>
+        <v>14.6777990374004</v>
       </c>
       <c r="F22">
-        <v>2.904989570309735</v>
+        <v>4.847704027268084</v>
       </c>
       <c r="G22">
-        <v>11.72960131123549</v>
+        <v>23.78119527638065</v>
       </c>
       <c r="H22">
-        <v>2.548242870724642</v>
+        <v>5.165723610661686</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1018,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.8889787308692259</v>
+        <v>1.842239894430963</v>
       </c>
       <c r="D23">
-        <v>0.8669790398943953</v>
+        <v>1.843704314060877</v>
       </c>
       <c r="E23">
-        <v>3.71438129064304</v>
+        <v>6.69942499725019</v>
       </c>
       <c r="F23">
-        <v>1.861732782959334</v>
+        <v>2.654282299821404</v>
       </c>
       <c r="G23">
-        <v>9.363769405098003</v>
+        <v>18.31989754188432</v>
       </c>
       <c r="H23">
-        <v>2.064901127434388</v>
+        <v>2.323168578523941</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1044,22 +1080,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.067905635753283</v>
+        <v>0.6728705371677834</v>
       </c>
       <c r="D24">
-        <v>1.052688204229557</v>
+        <v>0.7121572906296588</v>
       </c>
       <c r="E24">
-        <v>14.6777990374004</v>
+        <v>5.781730474822889</v>
       </c>
       <c r="F24">
-        <v>4.847704027268084</v>
+        <v>1.906466360518141</v>
       </c>
       <c r="G24">
-        <v>23.78119527638065</v>
+        <v>4.962785242991031</v>
       </c>
       <c r="H24">
-        <v>5.165723610661686</v>
+        <v>2.139183204710935</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1070,22 +1106,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.842239894430963</v>
+        <v>0.3785872225912779</v>
       </c>
       <c r="D25">
-        <v>1.843704314060877</v>
+        <v>0.3797503718171671</v>
       </c>
       <c r="E25">
-        <v>6.69942499725019</v>
+        <v>0.9817592655071447</v>
       </c>
       <c r="F25">
-        <v>2.654282299821404</v>
+        <v>1.310917780733238</v>
       </c>
       <c r="G25">
-        <v>18.31989754188432</v>
+        <v>2.835189599922381</v>
       </c>
       <c r="H25">
-        <v>2.323168578523941</v>
+        <v>1.52910793501635</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1096,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.6728705371677834</v>
+        <v>0.6609235877442553</v>
       </c>
       <c r="D26">
-        <v>0.7121572906296588</v>
+        <v>0.6683793116574943</v>
       </c>
       <c r="E26">
-        <v>5.781730474822889</v>
+        <v>2.098519024071414</v>
       </c>
       <c r="F26">
-        <v>1.906466360518141</v>
+        <v>1.715542775836872</v>
       </c>
       <c r="G26">
-        <v>4.962785242991031</v>
+        <v>4.987158154972104</v>
       </c>
       <c r="H26">
-        <v>2.139183204710935</v>
+        <v>2.061489444748408</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1122,22 +1158,22 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.3785872225912779</v>
+        <v>1.805987988009141</v>
       </c>
       <c r="D27">
-        <v>0.3797503718171671</v>
+        <v>1.890556741606611</v>
       </c>
       <c r="E27">
-        <v>0.9817592655071447</v>
+        <v>6.500471262713051</v>
       </c>
       <c r="F27">
-        <v>1.310917780733238</v>
+        <v>5.094830251506438</v>
       </c>
       <c r="G27">
-        <v>2.835189599922381</v>
+        <v>13.73722224131833</v>
       </c>
       <c r="H27">
-        <v>1.52910793501635</v>
+        <v>4.936899525025382</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1148,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.6609235877442553</v>
+        <v>0.7743814032865057</v>
       </c>
       <c r="D28">
-        <v>0.6683793116574943</v>
+        <v>0.7211946977886223</v>
       </c>
       <c r="E28">
-        <v>2.098519024071414</v>
+        <v>2.347915540304146</v>
       </c>
       <c r="F28">
-        <v>1.715542775836872</v>
+        <v>2.84781134607361</v>
       </c>
       <c r="G28">
-        <v>4.987158154972104</v>
+        <v>5.032334825523151</v>
       </c>
       <c r="H28">
-        <v>2.061489444748408</v>
+        <v>3.374686302400915</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1174,22 +1210,22 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1.805987988009141</v>
+        <v>0.5733360619825494</v>
       </c>
       <c r="D29">
-        <v>1.890556741606611</v>
+        <v>0.5841402883519828</v>
       </c>
       <c r="E29">
-        <v>6.500471262713051</v>
+        <v>1.284134114785361</v>
       </c>
       <c r="F29">
-        <v>5.094830251506438</v>
+        <v>2.501275180161155</v>
       </c>
       <c r="G29">
-        <v>13.73722224131833</v>
+        <v>4.783683700293635</v>
       </c>
       <c r="H29">
-        <v>4.936899525025382</v>
+        <v>2.915105094593925</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1200,22 +1236,22 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.7743814032865057</v>
+        <v>0.5093331640658189</v>
       </c>
       <c r="D30">
-        <v>0.7211946977886223</v>
+        <v>0.5146519024045204</v>
       </c>
       <c r="E30">
-        <v>2.347915540304146</v>
+        <v>0.8558635976575422</v>
       </c>
       <c r="F30">
-        <v>2.84781134607361</v>
+        <v>3.147285091904333</v>
       </c>
       <c r="G30">
-        <v>5.032334825523151</v>
+        <v>5.283490065603138</v>
       </c>
       <c r="H30">
-        <v>3.374686302400915</v>
+        <v>3.464380743312173</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1226,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.5733360619825494</v>
+        <v>0.9920714210558192</v>
       </c>
       <c r="D31">
-        <v>0.5841402883519828</v>
+        <v>1.002223587435989</v>
       </c>
       <c r="E31">
-        <v>1.284134114785361</v>
+        <v>1.777686182806633</v>
       </c>
       <c r="F31">
-        <v>2.501275180161155</v>
+        <v>4.100161680489536</v>
       </c>
       <c r="G31">
-        <v>4.783683700293635</v>
+        <v>9.148034368236482</v>
       </c>
       <c r="H31">
-        <v>2.915105094593925</v>
+        <v>4.42343458880582</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1252,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.5093331640658189</v>
+        <v>0.8308259620595784</v>
       </c>
       <c r="D32">
-        <v>0.5146519024045204</v>
+        <v>0.8589335070446785</v>
       </c>
       <c r="E32">
-        <v>0.8558635976575422</v>
+        <v>1.525734433561198</v>
       </c>
       <c r="F32">
-        <v>3.147285091904333</v>
+        <v>9.68726404712152</v>
       </c>
       <c r="G32">
-        <v>5.283490065603138</v>
+        <v>14.87338282674572</v>
       </c>
       <c r="H32">
-        <v>3.464380743312173</v>
+        <v>10.587113692343</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1278,22 +1314,22 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.9920714210558192</v>
+        <v>0.7854226609867928</v>
       </c>
       <c r="D33">
-        <v>1.002223587435989</v>
+        <v>0.7824129561702254</v>
       </c>
       <c r="E33">
-        <v>1.777686182806633</v>
+        <v>1.018353154528368</v>
       </c>
       <c r="F33">
-        <v>4.100161680489536</v>
+        <v>4.445270606584808</v>
       </c>
       <c r="G33">
-        <v>9.148034368236482</v>
+        <v>6.840934290718899</v>
       </c>
       <c r="H33">
-        <v>4.42343458880582</v>
+        <v>5.042361736176879</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1304,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.8308259620595784</v>
+        <v>0.750520663841569</v>
       </c>
       <c r="D34">
-        <v>0.8589335070446785</v>
+        <v>0.7804996092149774</v>
       </c>
       <c r="E34">
-        <v>1.525734433561198</v>
+        <v>2.368011155705495</v>
       </c>
       <c r="F34">
-        <v>9.68726404712152</v>
+        <v>1.722070590827341</v>
       </c>
       <c r="G34">
-        <v>14.87338282674572</v>
+        <v>4.760347776508738</v>
       </c>
       <c r="H34">
-        <v>10.587113692343</v>
+        <v>1.822946403447939</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1330,22 +1366,22 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.7854226609867928</v>
+        <v>1.487495043654953</v>
       </c>
       <c r="D35">
-        <v>0.7824129561702254</v>
+        <v>1.563410657302831</v>
       </c>
       <c r="E35">
-        <v>1.018353154528368</v>
+        <v>3.798906638933747</v>
       </c>
       <c r="F35">
-        <v>4.445270606584808</v>
+        <v>3.827483236914496</v>
       </c>
       <c r="G35">
-        <v>6.840934290718899</v>
+        <v>11.94853646827792</v>
       </c>
       <c r="H35">
-        <v>5.042361736176879</v>
+        <v>4.038313037684235</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1356,22 +1392,22 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.750520663841569</v>
+        <v>1.623718621213575</v>
       </c>
       <c r="D36">
-        <v>0.7804996092149774</v>
+        <v>1.788795126644249</v>
       </c>
       <c r="E36">
-        <v>2.368011155705495</v>
+        <v>8.139903460204051</v>
       </c>
       <c r="F36">
-        <v>1.722070590827341</v>
+        <v>4.880184218354154</v>
       </c>
       <c r="G36">
-        <v>4.760347776508738</v>
+        <v>8.686973923858922</v>
       </c>
       <c r="H36">
-        <v>1.822946403447939</v>
+        <v>5.335986282966507</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1382,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1.487495043654953</v>
+        <v>1.265575303369433</v>
       </c>
       <c r="D37">
-        <v>1.563410657302831</v>
+        <v>1.312081979881054</v>
       </c>
       <c r="E37">
-        <v>3.798906638933747</v>
+        <v>3.347077237440443</v>
       </c>
       <c r="F37">
-        <v>3.827483236914496</v>
+        <v>2.22351756096297</v>
       </c>
       <c r="G37">
-        <v>11.94853646827792</v>
+        <v>7.967463943914436</v>
       </c>
       <c r="H37">
-        <v>4.038313037684235</v>
+        <v>2.362897401430239</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1408,73 +1444,21 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1.623718621213575</v>
+        <v>1.230162831797159</v>
       </c>
       <c r="D38">
-        <v>1.788795126644249</v>
+        <v>1.164996213384112</v>
       </c>
       <c r="E38">
-        <v>8.139903460204051</v>
+        <v>3.105697902105879</v>
       </c>
       <c r="F38">
-        <v>4.880184218354154</v>
+        <v>2.444684169609276</v>
       </c>
       <c r="G38">
-        <v>8.686973923858922</v>
+        <v>8.529075094521358</v>
       </c>
       <c r="H38">
-        <v>5.335986282966507</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1.265575303369433</v>
-      </c>
-      <c r="D39">
-        <v>1.312081979881054</v>
-      </c>
-      <c r="E39">
-        <v>3.347077237440443</v>
-      </c>
-      <c r="F39">
-        <v>2.22351756096297</v>
-      </c>
-      <c r="G39">
-        <v>7.967463943914436</v>
-      </c>
-      <c r="H39">
-        <v>2.362897401430239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>1.230162831797159</v>
-      </c>
-      <c r="D40">
-        <v>1.164996213384112</v>
-      </c>
-      <c r="E40">
-        <v>3.105697902105879</v>
-      </c>
-      <c r="F40">
-        <v>2.444684169609276</v>
-      </c>
-      <c r="G40">
-        <v>8.529075094521358</v>
-      </c>
-      <c r="H40">
         <v>2.689108132926339</v>
       </c>
     </row>
